--- a/private/concepts/recommended_bans/calculation_bans.xlsx
+++ b/private/concepts/recommended_bans/calculation_bans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marti\Desktop\lolvvv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\concepts\recommended_bans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE8D63-0D21-4405-86EB-E480417885FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874A524-BF11-40D4-9376-5C417246789D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34860" yWindow="5970" windowWidth="7035" windowHeight="15435" activeTab="1" xr2:uid="{270C551E-3776-4122-A83E-E4166798D2A1}"/>
+    <workbookView xWindow="4830" yWindow="2715" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{270C551E-3776-4122-A83E-E4166798D2A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Season10 Matches" sheetId="1" r:id="rId1"/>
@@ -372,12 +372,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -392,17 +398,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -720,7 +727,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,125 +740,125 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>-12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C17">
@@ -859,7 +866,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C18">
@@ -867,16 +874,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C20">
@@ -884,7 +891,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21">
@@ -892,21 +899,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24">
@@ -914,7 +921,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25">
@@ -922,7 +929,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26">
@@ -930,7 +937,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27">
@@ -938,7 +945,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C28">
@@ -946,7 +953,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C29">
@@ -954,7 +961,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30">
@@ -962,7 +969,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C31">
@@ -970,7 +977,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C32">
@@ -978,7 +985,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C33">
@@ -986,7 +993,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C34">
@@ -994,7 +1001,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35">
@@ -1002,7 +1009,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C36">
@@ -1010,7 +1017,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C37">
@@ -1018,21 +1025,21 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C40">
@@ -1040,7 +1047,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C41">
@@ -1048,7 +1055,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C42">
@@ -1056,7 +1063,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C43">
@@ -1064,7 +1071,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C44">
@@ -1072,7 +1079,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C45">
@@ -1080,7 +1087,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C46">
@@ -1088,7 +1095,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C47">
@@ -1096,7 +1103,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C48">
@@ -1104,7 +1111,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C49">
@@ -1112,7 +1119,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C50">
@@ -1120,7 +1127,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C51">
@@ -1128,341 +1135,341 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C60">
         <v>8</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C64">
         <v>0.01</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C65">
         <v>0.02</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C66">
         <v>0.03</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C69">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C70">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C72">
         <v>2.21</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C73">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C74">
         <v>2.23</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C75">
         <v>3.3</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C76">
         <v>3.31</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C77">
         <v>3.32</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C78">
         <v>3.33</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C79">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C80">
         <v>4.41</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C81">
         <v>4.42</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C82">
         <v>4.43</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C83">
         <v>5.5</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C84">
         <v>5.51</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C85">
         <v>5.52</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C86">
         <v>5.53</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C87">
         <v>6.6</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C88">
         <v>7.7</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C89">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
+      <c r="B90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1478,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB7AF5B-6265-4619-8A54-D72E58401DB7}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,228 +1498,228 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
+      <c r="C8" s="8">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
+      <c r="C9" s="8">
+        <v>-15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="6">
-        <v>3</v>
+      <c r="C10" s="8">
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="6">
-        <v>4</v>
+      <c r="C11" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>16</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30">
@@ -1720,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -1728,7 +1735,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -1736,7 +1743,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33">
@@ -1744,7 +1751,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C34">
@@ -1752,7 +1759,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C35">
@@ -1760,7 +1767,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C36">
@@ -1768,7 +1775,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C37">
@@ -1776,7 +1783,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C38">
@@ -1784,7 +1791,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C39">
@@ -1792,7 +1799,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C40">
@@ -1800,7 +1807,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C41">
@@ -1808,7 +1815,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C42">
@@ -1816,7 +1823,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C43">
@@ -1824,21 +1831,21 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C46">
@@ -1846,7 +1853,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C47">
@@ -1854,7 +1861,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C48">
@@ -1862,7 +1869,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C49">
@@ -1870,7 +1877,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C50">
@@ -1878,7 +1885,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C51">
@@ -1886,7 +1893,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52">
@@ -1894,7 +1901,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C53">
@@ -1902,7 +1909,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C54">
@@ -1910,7 +1917,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C55">
@@ -1918,7 +1925,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C56">
@@ -1926,7 +1933,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C57">
@@ -1934,338 +1941,338 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C66">
         <v>8</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C70">
         <v>0.01</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C71">
         <v>0.02</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C72">
         <v>0.03</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C74">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C75">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C76">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C78">
         <v>2.21</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C79">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C80">
         <v>2.23</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C81">
         <v>3.3</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C82">
         <v>3.31</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C83">
         <v>3.32</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C84">
         <v>3.33</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C85">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C86">
         <v>4.41</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C87">
         <v>4.42</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C88">
         <v>4.43</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C89">
         <v>5.5</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C90">
         <v>5.51</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C91">
         <v>5.52</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C92">
         <v>5.53</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C93">
         <v>6.6</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C94">
         <v>7.7</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C95">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2274,5 +2281,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/private/concepts/recommended_bans/calculation_bans.xlsx
+++ b/private/concepts/recommended_bans/calculation_bans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\concepts\recommended_bans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874A524-BF11-40D4-9376-5C417246789D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F93359-7537-4F41-82FB-16B5B12B4A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="2715" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{270C551E-3776-4122-A83E-E4166798D2A1}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{270C551E-3776-4122-A83E-E4166798D2A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Season10 Matches" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +367,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -406,10 +419,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -726,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042CC767-FF95-4D3B-BBFE-A84F5A7D392E}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,21 +762,21 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -789,40 +811,40 @@
       <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5">
-        <v>-12</v>
+      <c r="C8" s="13">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="5">
-        <v>-8</v>
+      <c r="C9" s="13">
+        <v>-15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="5">
-        <v>-6</v>
+      <c r="C10" s="13">
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="5">
-        <v>-4</v>
+      <c r="C11" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
+      <c r="C12" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1008,85 +1030,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="10">
         <v>-10</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C41">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="C41" s="10">
+        <v>-8</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="C42" s="10">
+        <v>-4</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
@@ -1485,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB7AF5B-6265-4619-8A54-D72E58401DB7}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,21 +1531,21 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1580,7 @@
       <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>-20</v>
       </c>
     </row>
@@ -1555,7 +1588,7 @@
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>-15</v>
       </c>
     </row>
@@ -1563,7 +1596,7 @@
       <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>-10</v>
       </c>
     </row>
@@ -1571,7 +1604,7 @@
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1758,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1790,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1798,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,99 +1847,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C47">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="C47" s="15">
+        <v>-4</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C48">
-        <v>-1</v>
-      </c>
+      <c r="C48" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="15">
         <v>1</v>
       </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="15">
         <v>2</v>
       </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="15">
         <v>3</v>
       </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="15">
         <v>4</v>
       </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="15">
         <v>5</v>
       </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
